--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H2">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N2">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O2">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P2">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q2">
-        <v>597.7443982944125</v>
+        <v>1186.644304407207</v>
       </c>
       <c r="R2">
-        <v>597.7443982944125</v>
+        <v>10679.79873966487</v>
       </c>
       <c r="S2">
-        <v>0.3358476952971001</v>
+        <v>0.3741576428960578</v>
       </c>
       <c r="T2">
-        <v>0.3358476952971001</v>
+        <v>0.3741576428960577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H3">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N3">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O3">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P3">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q3">
-        <v>128.2977281982299</v>
+        <v>251.1001844871072</v>
       </c>
       <c r="R3">
-        <v>128.2977281982299</v>
+        <v>2259.901660383965</v>
       </c>
       <c r="S3">
-        <v>0.07208515286831096</v>
+        <v>0.07917372780497599</v>
       </c>
       <c r="T3">
-        <v>0.07208515286831096</v>
+        <v>0.07917372780497596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H4">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I4">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J4">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N4">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O4">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P4">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q4">
-        <v>17.18504576291094</v>
+        <v>37.85311865537</v>
       </c>
       <c r="R4">
-        <v>17.18504576291094</v>
+        <v>340.67806789833</v>
       </c>
       <c r="S4">
-        <v>0.009655561858073853</v>
+        <v>0.01193536563547847</v>
       </c>
       <c r="T4">
-        <v>0.009655561858073853</v>
+        <v>0.01193536563547846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H5">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I5">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J5">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N5">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O5">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P5">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q5">
-        <v>15.97850641636197</v>
+        <v>38.54051774589333</v>
       </c>
       <c r="R5">
-        <v>15.97850641636197</v>
+        <v>346.86465971304</v>
       </c>
       <c r="S5">
-        <v>0.008977657623454564</v>
+        <v>0.01215210760481492</v>
       </c>
       <c r="T5">
-        <v>0.008977657623454564</v>
+        <v>0.01215210760481492</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H6">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I6">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J6">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N6">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O6">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P6">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q6">
-        <v>334.0786592950117</v>
+        <v>346.4367888272354</v>
       </c>
       <c r="R6">
-        <v>334.0786592950117</v>
+        <v>3117.931099445119</v>
       </c>
       <c r="S6">
-        <v>0.1877048920781557</v>
+        <v>0.1092340576183281</v>
       </c>
       <c r="T6">
-        <v>0.1877048920781557</v>
+        <v>0.1092340576183281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H7">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I7">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J7">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N7">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O7">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P7">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q7">
-        <v>71.70545328297577</v>
+        <v>73.30784908717544</v>
       </c>
       <c r="R7">
-        <v>71.70545328297577</v>
+        <v>659.770641784579</v>
       </c>
       <c r="S7">
-        <v>0.04028830934097673</v>
+        <v>0.0231145018927467</v>
       </c>
       <c r="T7">
-        <v>0.04028830934097673</v>
+        <v>0.0231145018927467</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H8">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I8">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J8">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N8">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O8">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P8">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q8">
-        <v>9.604702385799632</v>
+        <v>11.051089888822</v>
       </c>
       <c r="R8">
-        <v>9.604702385799632</v>
+        <v>99.45980899939799</v>
       </c>
       <c r="S8">
-        <v>0.005396482458872954</v>
+        <v>0.003484489605585455</v>
       </c>
       <c r="T8">
-        <v>0.005396482458872954</v>
+        <v>0.003484489605585454</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H9">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I9">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J9">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N9">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O9">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P9">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q9">
-        <v>8.930368927498904</v>
+        <v>11.25177372700267</v>
       </c>
       <c r="R9">
-        <v>8.930368927498904</v>
+        <v>101.265963543024</v>
       </c>
       <c r="S9">
-        <v>0.005017602558905283</v>
+        <v>0.00354776669003455</v>
       </c>
       <c r="T9">
-        <v>0.005017602558905283</v>
+        <v>0.003547766690034549</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H10">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I10">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J10">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N10">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O10">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P10">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q10">
-        <v>128.1947710334272</v>
+        <v>145.7223421680968</v>
       </c>
       <c r="R10">
-        <v>128.1947710334272</v>
+        <v>1311.501079512871</v>
       </c>
       <c r="S10">
-        <v>0.07202730552317153</v>
+        <v>0.04594732209172413</v>
       </c>
       <c r="T10">
-        <v>0.07202730552317153</v>
+        <v>0.04594732209172413</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H11">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I11">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J11">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N11">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O11">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P11">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q11">
-        <v>27.51526896347445</v>
+        <v>30.83561507555677</v>
       </c>
       <c r="R11">
-        <v>27.51526896347445</v>
+        <v>277.520535680011</v>
       </c>
       <c r="S11">
-        <v>0.01545968426175229</v>
+        <v>0.009722695344401464</v>
       </c>
       <c r="T11">
-        <v>0.01545968426175229</v>
+        <v>0.009722695344401464</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H12">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I12">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J12">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N12">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O12">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P12">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q12">
-        <v>3.685577000907764</v>
+        <v>4.648440217797999</v>
       </c>
       <c r="R12">
-        <v>3.685577000907764</v>
+        <v>41.835961960182</v>
       </c>
       <c r="S12">
-        <v>0.002070772298538897</v>
+        <v>0.001465687256556113</v>
       </c>
       <c r="T12">
-        <v>0.002070772298538897</v>
+        <v>0.001465687256556113</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H13">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I13">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J13">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N13">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O13">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P13">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q13">
-        <v>3.426817511542405</v>
+        <v>4.732854228890666</v>
       </c>
       <c r="R13">
-        <v>3.426817511542405</v>
+        <v>42.595688060016</v>
       </c>
       <c r="S13">
-        <v>0.001925386112758522</v>
+        <v>0.001492303612696306</v>
       </c>
       <c r="T13">
-        <v>0.001925386112758522</v>
+        <v>0.001492303612696306</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H14">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I14">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J14">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N14">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O14">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P14">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q14">
-        <v>341.2760004708263</v>
+        <v>806.7379701500259</v>
       </c>
       <c r="R14">
-        <v>341.2760004708263</v>
+        <v>7260.641731350233</v>
       </c>
       <c r="S14">
-        <v>0.1917487784835515</v>
+        <v>0.2543703923956158</v>
       </c>
       <c r="T14">
-        <v>0.1917487784835515</v>
+        <v>0.2543703923956158</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H15">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I15">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J15">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N15">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O15">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P15">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q15">
-        <v>73.25026495257802</v>
+        <v>170.7100033136059</v>
       </c>
       <c r="R15">
-        <v>73.25026495257802</v>
+        <v>1536.390029822453</v>
       </c>
       <c r="S15">
-        <v>0.04115627471277172</v>
+        <v>0.05382611471809551</v>
       </c>
       <c r="T15">
-        <v>0.04115627471277172</v>
+        <v>0.05382611471809551</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H16">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I16">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J16">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N16">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O16">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P16">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q16">
-        <v>9.811624672031975</v>
+        <v>25.734373808954</v>
       </c>
       <c r="R16">
-        <v>9.811624672031975</v>
+        <v>231.609364280586</v>
       </c>
       <c r="S16">
-        <v>0.005512743478022665</v>
+        <v>0.00811423659979924</v>
       </c>
       <c r="T16">
-        <v>0.005512743478022665</v>
+        <v>0.00811423659979924</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H17">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I17">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J17">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N17">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O17">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P17">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q17">
-        <v>9.122763473540061</v>
+        <v>26.20170082928533</v>
       </c>
       <c r="R17">
-        <v>9.122763473540061</v>
+        <v>235.815307463568</v>
       </c>
       <c r="S17">
-        <v>0.00512570104558291</v>
+        <v>0.008261588233089352</v>
       </c>
       <c r="T17">
-        <v>0.00512570104558291</v>
+        <v>0.008261588233089352</v>
       </c>
     </row>
   </sheetData>
